--- a/models3/excels3/TResnet.xlsx
+++ b/models3/excels3/TResnet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models3\excels3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FAFEF7-A8BC-4E89-A935-73CD08D8871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504F5EC-8D37-4823-883E-8C2DBBC4104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1188,38 +1188,38 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>0.70533647239208197</v>
+        <v>0.119964599609375</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B34">
-        <v>0.71633146554231597</v>
+        <v>0.1227274537086487</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>0.119964599609375</v>
+        <v>0.12880526483058929</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B36">
-        <v>0.1227274537086487</v>
+        <v>0.16835074126720431</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1244,66 +1244,66 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>0.12880526483058929</v>
+        <v>0.19952428340911871</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>0.16835074126720431</v>
+        <v>0.21061937510967249</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B39">
-        <v>0.19952428340911871</v>
+        <v>0.22621320188045499</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B40">
-        <v>0.21061937510967249</v>
+        <v>0.23270596563816071</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>0.22621320188045499</v>
+        <v>0.23787055909633639</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B42">
-        <v>0.23270596563816071</v>
+        <v>0.27261489629745478</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>0.23787055909633639</v>
+        <v>0.28951478004455572</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B44">
-        <v>0.27261489629745478</v>
+        <v>0.30990007519721979</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>0.28951478004455572</v>
+        <v>0.3175656795501709</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1370,52 +1370,52 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>0.30990007519721979</v>
+        <v>0.32551130652427668</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.3175656795501709</v>
+        <v>0.33097067475318909</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B48">
-        <v>0.32551130652427668</v>
+        <v>0.34212204813957209</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B49">
-        <v>0.33097067475318909</v>
+        <v>0.36818864941596979</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B50">
-        <v>0.34212204813957209</v>
+        <v>0.37828177213668818</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1440,38 +1440,38 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B51">
-        <v>0.36818864941596979</v>
+        <v>0.40749296545982361</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B52">
-        <v>0.37828177213668818</v>
+        <v>0.44463431835174561</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B53">
-        <v>0.40749296545982361</v>
+        <v>0.45879200100898743</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1482,24 +1482,24 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B54">
-        <v>0.44463431835174561</v>
+        <v>0.47010308504104609</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B55">
-        <v>0.45879200100898743</v>
+        <v>0.48253586888313288</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1510,27 +1510,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>0.47010308504104609</v>
+        <v>0.50000202655792236</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B57">
-        <v>0.48253586888313288</v>
+        <v>0.5007864236831665</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>0.50000202655792236</v>
+        <v>0.50805598497390747</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1552,83 +1552,83 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B59">
-        <v>0.5007864236831665</v>
+        <v>0.56030339002609253</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B60">
-        <v>0.50805598497390747</v>
+        <v>0.46653946638107302</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>0.56030339002609253</v>
+        <v>0.49134066104888902</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B62">
-        <v>0.566539466381073</v>
+        <v>0.40500043630600002</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.59134066104888916</v>
+        <v>0.35810106992721602</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B64">
-        <v>0.60500043630599976</v>
+        <v>0.31980617046356202</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>0.60810106992721558</v>
+        <v>0.46088789701461802</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B66">
-        <v>0.61980617046356201</v>
+        <v>0.66511988639831543</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>0.66088789701461792</v>
+        <v>0.68200212717056274</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1678,24 +1678,24 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B68">
-        <v>0.66511988639831543</v>
+        <v>0.70214313268661499</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>0.68200212717056274</v>
+        <v>0.70533647239208197</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1706,24 +1706,24 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B70">
-        <v>0.70214313268661499</v>
+        <v>0.70802479982376099</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B71">
-        <v>0.70802479982376099</v>
+        <v>0.71633146554231597</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2266,7 +2266,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
-    <sortCondition ref="B1:B109"/>
+    <sortCondition ref="B46:B109"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
